--- a/examples/ThieffryThomas1995/ThieffryThomas1995_multivalue_reconstructed.xlsx
+++ b/examples/ThieffryThomas1995/ThieffryThomas1995_multivalue_reconstructed.xlsx
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-10-07T20:41:09Z</t>
+          <t>2025-10-07T22:16:00Z</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4430,7 +4430,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tr_Cro</t>
+          <t>tr_Cro_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4439,49 +4439,69 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cro &lt; 3 &amp; CI &lt; 2</t>
+          <t>Cro &gt;= 3 &amp; CI &lt; 2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tr_CII</t>
+          <t>tr_Cro_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CII</t>
+          <t>Cro</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N &amp; CI &lt; 2 &amp; Cro &lt; 3</t>
+          <t>Cro &lt; 3 &amp; CI &lt; 2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tr_N</t>
+          <t>tr_CII</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>CII</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>N &amp; CI &lt; 2 &amp; Cro &lt; 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>tr_N</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>CI &lt; 1 &amp; Cro &lt; 2</t>
         </is>
